--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lama1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lama1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.05926299999999999</v>
+        <v>0.014112</v>
       </c>
       <c r="H2">
-        <v>0.177789</v>
+        <v>0.042336</v>
       </c>
       <c r="I2">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="J2">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N2">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q2">
-        <v>5.618123569812998</v>
+        <v>2.495779133568</v>
       </c>
       <c r="R2">
-        <v>50.56311212831699</v>
+        <v>22.462012202112</v>
       </c>
       <c r="S2">
-        <v>0.07394800041157368</v>
+        <v>0.0473519621871726</v>
       </c>
       <c r="T2">
-        <v>0.07394800041157369</v>
+        <v>0.04735196218717259</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.05926299999999999</v>
+        <v>0.014112</v>
       </c>
       <c r="H3">
-        <v>0.177789</v>
+        <v>0.042336</v>
       </c>
       <c r="I3">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="J3">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q3">
-        <v>8.631144075714664</v>
+        <v>2.055290909952</v>
       </c>
       <c r="R3">
-        <v>77.68029668143198</v>
+        <v>18.497618189568</v>
       </c>
       <c r="S3">
-        <v>0.1136065872763536</v>
+        <v>0.03899465948036584</v>
       </c>
       <c r="T3">
-        <v>0.1136065872763536</v>
+        <v>0.03899465948036583</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.05926299999999999</v>
+        <v>0.014112</v>
       </c>
       <c r="H4">
-        <v>0.177789</v>
+        <v>0.042336</v>
       </c>
       <c r="I4">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="J4">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N4">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q4">
-        <v>4.312922349618666</v>
+        <v>1.18576239936</v>
       </c>
       <c r="R4">
-        <v>38.81630114656799</v>
+        <v>10.67186159424</v>
       </c>
       <c r="S4">
-        <v>0.05676841737664062</v>
+        <v>0.02249725368013458</v>
       </c>
       <c r="T4">
-        <v>0.05676841737664062</v>
+        <v>0.02249725368013457</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.05926299999999999</v>
+        <v>0.014112</v>
       </c>
       <c r="H5">
-        <v>0.177789</v>
+        <v>0.042336</v>
       </c>
       <c r="I5">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="J5">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N5">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q5">
-        <v>6.864782447841666</v>
+        <v>1.198514882208</v>
       </c>
       <c r="R5">
-        <v>61.78304203057499</v>
+        <v>10.786633939872</v>
       </c>
       <c r="S5">
-        <v>0.09035702561011062</v>
+        <v>0.02273920421072812</v>
       </c>
       <c r="T5">
-        <v>0.09035702561011065</v>
+        <v>0.02273920421072812</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.05926299999999999</v>
+        <v>0.014112</v>
       </c>
       <c r="H6">
-        <v>0.177789</v>
+        <v>0.042336</v>
       </c>
       <c r="I6">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="J6">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N6">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q6">
-        <v>3.448329425017999</v>
+        <v>0.902759085984</v>
       </c>
       <c r="R6">
-        <v>31.03496482516199</v>
+        <v>8.124831773856</v>
       </c>
       <c r="S6">
-        <v>0.04538829781363465</v>
+        <v>0.01712788344476964</v>
       </c>
       <c r="T6">
-        <v>0.04538829781363466</v>
+        <v>0.01712788344476964</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.05926299999999999</v>
+        <v>0.014112</v>
       </c>
       <c r="H7">
-        <v>0.177789</v>
+        <v>0.042336</v>
       </c>
       <c r="I7">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="J7">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N7">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q7">
-        <v>4.526869641843333</v>
+        <v>1.510393920672</v>
       </c>
       <c r="R7">
-        <v>40.74182677659</v>
+        <v>13.593545286048</v>
       </c>
       <c r="S7">
-        <v>0.05958447762467309</v>
+        <v>0.02865642831028473</v>
       </c>
       <c r="T7">
-        <v>0.05958447762467311</v>
+        <v>0.02865642831028472</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -915,16 +915,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.075532</v>
+        <v>0.059263</v>
       </c>
       <c r="H8">
-        <v>0.226596</v>
+        <v>0.177789</v>
       </c>
       <c r="I8">
-        <v>0.5603471938870136</v>
+        <v>0.7448500362393221</v>
       </c>
       <c r="J8">
-        <v>0.5603471938870137</v>
+        <v>0.7448500362393219</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N8">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q8">
-        <v>7.160422345731999</v>
+        <v>10.48096363326533</v>
       </c>
       <c r="R8">
-        <v>64.443801111588</v>
+        <v>94.32867269938801</v>
       </c>
       <c r="S8">
-        <v>0.09424835676707193</v>
+        <v>0.1988534109338442</v>
       </c>
       <c r="T8">
-        <v>0.09424835676707197</v>
+        <v>0.1988534109338442</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -977,16 +977,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.075532</v>
+        <v>0.059263</v>
       </c>
       <c r="H9">
-        <v>0.226596</v>
+        <v>0.177789</v>
       </c>
       <c r="I9">
-        <v>0.5603471938870136</v>
+        <v>0.7448500362393221</v>
       </c>
       <c r="J9">
-        <v>0.5603471938870137</v>
+        <v>0.7448500362393219</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q9">
-        <v>11.00058340493867</v>
+        <v>8.631144075714666</v>
       </c>
       <c r="R9">
-        <v>99.00525064444801</v>
+        <v>77.680296681432</v>
       </c>
       <c r="S9">
-        <v>0.144794100031344</v>
+        <v>0.163757121937707</v>
       </c>
       <c r="T9">
-        <v>0.1447941000313441</v>
+        <v>0.1637571219377069</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -1039,16 +1039,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.075532</v>
+        <v>0.059263</v>
       </c>
       <c r="H10">
-        <v>0.226596</v>
+        <v>0.177789</v>
       </c>
       <c r="I10">
-        <v>0.5603471938870136</v>
+        <v>0.7448500362393221</v>
       </c>
       <c r="J10">
-        <v>0.5603471938870137</v>
+        <v>0.7448500362393219</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N10">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q10">
-        <v>5.496914616394667</v>
+        <v>4.979580291473334</v>
       </c>
       <c r="R10">
-        <v>49.47223154755201</v>
+        <v>44.81622262326</v>
       </c>
       <c r="S10">
-        <v>0.07235259945146921</v>
+        <v>0.09447666842728283</v>
       </c>
       <c r="T10">
-        <v>0.07235259945146923</v>
+        <v>0.09447666842728281</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1101,16 +1101,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.075532</v>
+        <v>0.059263</v>
       </c>
       <c r="H11">
-        <v>0.226596</v>
+        <v>0.177789</v>
       </c>
       <c r="I11">
-        <v>0.5603471938870136</v>
+        <v>0.7448500362393221</v>
       </c>
       <c r="J11">
-        <v>0.5603471938870137</v>
+        <v>0.7448500362393219</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N11">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q11">
-        <v>8.749316569366668</v>
+        <v>5.033134032333668</v>
       </c>
       <c r="R11">
-        <v>78.74384912430001</v>
+        <v>45.29820629100301</v>
       </c>
       <c r="S11">
-        <v>0.1151620211326271</v>
+        <v>0.09549273378262335</v>
       </c>
       <c r="T11">
-        <v>0.1151620211326271</v>
+        <v>0.09549273378262332</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -1163,16 +1163,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.075532</v>
+        <v>0.059263</v>
       </c>
       <c r="H12">
-        <v>0.226596</v>
+        <v>0.177789</v>
       </c>
       <c r="I12">
-        <v>0.5603471938870136</v>
+        <v>0.7448500362393221</v>
       </c>
       <c r="J12">
-        <v>0.5603471938870137</v>
+        <v>0.7448500362393219</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N12">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q12">
-        <v>4.394971873352</v>
+        <v>3.791114775557667</v>
       </c>
       <c r="R12">
-        <v>39.554746860168</v>
+        <v>34.120032980019</v>
       </c>
       <c r="S12">
-        <v>0.05784838618462537</v>
+        <v>0.07192812900987693</v>
       </c>
       <c r="T12">
-        <v>0.05784838618462539</v>
+        <v>0.0719281290098769</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1225,16 +1225,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.075532</v>
+        <v>0.059263</v>
       </c>
       <c r="H13">
-        <v>0.226596</v>
+        <v>0.177789</v>
       </c>
       <c r="I13">
-        <v>0.5603471938870136</v>
+        <v>0.7448500362393221</v>
       </c>
       <c r="J13">
-        <v>0.5603471938870137</v>
+        <v>0.7448500362393219</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,400 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N13">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q13">
-        <v>5.769595156973334</v>
+        <v>6.342862451869667</v>
       </c>
       <c r="R13">
-        <v>51.92635641276001</v>
+        <v>57.08576206682701</v>
       </c>
       <c r="S13">
-        <v>0.07594173031987596</v>
+        <v>0.1203419721479878</v>
       </c>
       <c r="T13">
-        <v>0.07594173031987599</v>
+        <v>0.1203419721479878</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.006188666666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.018566</v>
+      </c>
+      <c r="I14">
+        <v>0.07778257244722256</v>
+      </c>
+      <c r="J14">
+        <v>0.07778257244722254</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>176.8550973333333</v>
+      </c>
+      <c r="N14">
+        <v>530.565292</v>
+      </c>
+      <c r="O14">
+        <v>0.2669710696905332</v>
+      </c>
+      <c r="P14">
+        <v>0.2669710696905332</v>
+      </c>
+      <c r="Q14">
+        <v>1.094497245696889</v>
+      </c>
+      <c r="R14">
+        <v>9.850475211272</v>
+      </c>
+      <c r="S14">
+        <v>0.0207656965695164</v>
+      </c>
+      <c r="T14">
+        <v>0.0207656965695164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.006188666666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.018566</v>
+      </c>
+      <c r="I15">
+        <v>0.07778257244722256</v>
+      </c>
+      <c r="J15">
+        <v>0.07778257244722254</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>145.6413626666667</v>
+      </c>
+      <c r="N15">
+        <v>436.924088</v>
+      </c>
+      <c r="O15">
+        <v>0.2198524722701247</v>
+      </c>
+      <c r="P15">
+        <v>0.2198524722701247</v>
+      </c>
+      <c r="Q15">
+        <v>0.901325846423111</v>
+      </c>
+      <c r="R15">
+        <v>8.111932617808</v>
+      </c>
+      <c r="S15">
+        <v>0.01710069085205197</v>
+      </c>
+      <c r="T15">
+        <v>0.01710069085205197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.006188666666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.018566</v>
+      </c>
+      <c r="I16">
+        <v>0.07778257244722256</v>
+      </c>
+      <c r="J16">
+        <v>0.07778257244722254</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>84.02511333333334</v>
+      </c>
+      <c r="N16">
+        <v>252.07534</v>
+      </c>
+      <c r="O16">
+        <v>0.1268398520919549</v>
+      </c>
+      <c r="P16">
+        <v>0.1268398520919549</v>
+      </c>
+      <c r="Q16">
+        <v>0.5200034180488888</v>
+      </c>
+      <c r="R16">
+        <v>4.68003076244</v>
+      </c>
+      <c r="S16">
+        <v>0.009865929984537473</v>
+      </c>
+      <c r="T16">
+        <v>0.009865929984537471</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.006188666666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.018566</v>
+      </c>
+      <c r="I17">
+        <v>0.07778257244722256</v>
+      </c>
+      <c r="J17">
+        <v>0.07778257244722254</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>84.92877566666668</v>
+      </c>
+      <c r="N17">
+        <v>254.786327</v>
+      </c>
+      <c r="O17">
+        <v>0.1282039727953256</v>
+      </c>
+      <c r="P17">
+        <v>0.1282039727953256</v>
+      </c>
+      <c r="Q17">
+        <v>0.5255958830091112</v>
+      </c>
+      <c r="R17">
+        <v>4.730362947082</v>
+      </c>
+      <c r="S17">
+        <v>0.009972034801974164</v>
+      </c>
+      <c r="T17">
+        <v>0.009972034801974162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.006188666666666666</v>
+      </c>
+      <c r="H18">
+        <v>0.018566</v>
+      </c>
+      <c r="I18">
+        <v>0.07778257244722256</v>
+      </c>
+      <c r="J18">
+        <v>0.07778257244722254</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>63.97102366666667</v>
+      </c>
+      <c r="N18">
+        <v>191.913071</v>
+      </c>
+      <c r="O18">
+        <v>0.09656726254996952</v>
+      </c>
+      <c r="P18">
+        <v>0.09656726254996952</v>
+      </c>
+      <c r="Q18">
+        <v>0.3958953417984444</v>
+      </c>
+      <c r="R18">
+        <v>3.563058076186</v>
+      </c>
+      <c r="S18">
+        <v>0.007511250095322965</v>
+      </c>
+      <c r="T18">
+        <v>0.007511250095322964</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.006188666666666666</v>
+      </c>
+      <c r="H19">
+        <v>0.018566</v>
+      </c>
+      <c r="I19">
+        <v>0.07778257244722256</v>
+      </c>
+      <c r="J19">
+        <v>0.07778257244722254</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>107.0290476666667</v>
+      </c>
+      <c r="N19">
+        <v>321.087143</v>
+      </c>
+      <c r="O19">
+        <v>0.1615653706020921</v>
+      </c>
+      <c r="P19">
+        <v>0.1615653706020921</v>
+      </c>
+      <c r="Q19">
+        <v>0.6623670996597777</v>
+      </c>
+      <c r="R19">
+        <v>5.961303896938</v>
+      </c>
+      <c r="S19">
+        <v>0.01256697014381959</v>
+      </c>
+      <c r="T19">
+        <v>0.01256697014381959</v>
       </c>
     </row>
   </sheetData>
